--- a/biology/Médecine/Abcès/Abcès.xlsx
+++ b/biology/Médecine/Abcès/Abcès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un abcès est une accumulation locale de pus après nécrose dans une cavité néoformée. Un abcès superficiel peut présenter des symptômes comme rougeurs, douleurs et chaleurs (composantes de l'inflammation), c'est alors un abcès chaud. Plus rarement, il se forme lentement sans réaction inflammatoire, c'est alors un abcès froid (tuberculose, mycose…)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un abcès est une accumulation locale de pus après nécrose dans une cavité néoformée. Un abcès superficiel peut présenter des symptômes comme rougeurs, douleurs et chaleurs (composantes de l'inflammation), c'est alors un abcès chaud. Plus rarement, il se forme lentement sans réaction inflammatoire, c'est alors un abcès froid (tuberculose, mycose…).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abcès est une complication locale d'une réaction inflammatoire d'origine infectieuse, ou physico-chimique.
 Il est provoqué par des agents pathogènes, dits pyogènes (producteurs de pus), introduits le plus souvent par inoculation, comme des bactéries (staphylocoques, streptocoques, pneumocoques…), des parasites, des virus facilitant une surinfection bactérienne, des corps étrangers, des corps chimiques (caustiques), etc.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Localisations et diagnostics</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les localisations les plus fréquentes sont la peau, le tissu sous-cutané, et l'appareil dentaire. En général, les abcès chauds sont faciles à voir et à diagnostiquer (signes inflammatoires classiques : tuméfaction rouge, chaude, douloureuse, avec fluctuation à maturité).
 Tous les tissus ou organes, superficiels ou profonds, y compris les os, peuvent être touchés par des abcès. Ces derniers peuvent se manifester, ou pas, par un syndrome infectieux et/ou une souffrance d'organe, ce qui rend leur diagnostic exact plus difficile.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abcès peut se transformer en phlegmon. Le foyer phlegmoneux atteint est large, en restant collecté ou limité, et prolongé par une lymphangite. Dans ce cas on doit faire le drainage et antibiothérapie.
 Une diffusion rapide, non limitée, dans les espaces celluleux, réalise une cellulite infectieuse, affection pouvant être très grave sur terrain particulier.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladie de Verneuil, ou hidrosadénite suppurée.
 Furonculose.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Thérapie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La thérapie la plus efficace consiste à évacuer le pus par une incision large sous anesthésie générale, locale (cryo-anesthésie), ou loco-régionale.
 Principes :
@@ -672,7 +694,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s</t>
+          <t>Abcès</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,7 +712,9 @@
           <t>Liste d'abcès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Abcès alvéolaire, dans un alvéole dentaire.
 Abcès amibien, complication grave de l'amibiase.
